--- a/register/studentData.xlsx
+++ b/register/studentData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\kasalongV2\register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817F9A92-17E6-41A2-83AB-B66D084C5AA7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A2C64B-3B54-452D-9B71-3ACA16442BEA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="แผ่น1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="285">
   <si>
     <t>หน้าชื่อ</t>
   </si>
@@ -90,866 +90,809 @@
     <t>torza1112</t>
   </si>
   <si>
-    <t>ม.7</t>
-  </si>
-  <si>
-    <t>083-4788824</t>
-  </si>
-  <si>
-    <t>torza1113</t>
-  </si>
-  <si>
-    <t>ม.8</t>
-  </si>
-  <si>
-    <t>083-4788825</t>
-  </si>
-  <si>
-    <t>torza1114</t>
-  </si>
-  <si>
-    <t>ม.9</t>
-  </si>
-  <si>
-    <t>083-4788826</t>
-  </si>
-  <si>
-    <t>torza1115</t>
-  </si>
-  <si>
-    <t>ม.10</t>
-  </si>
-  <si>
-    <t>083-4788827</t>
-  </si>
-  <si>
-    <t>torza1116</t>
-  </si>
-  <si>
-    <t>ม.11</t>
-  </si>
-  <si>
-    <t>083-4788828</t>
-  </si>
-  <si>
-    <t>torza1117</t>
-  </si>
-  <si>
-    <t>ม.12</t>
-  </si>
-  <si>
-    <t>083-4788829</t>
-  </si>
-  <si>
-    <t>torza1118</t>
-  </si>
-  <si>
-    <t>ม.13</t>
-  </si>
-  <si>
-    <t>083-4788830</t>
-  </si>
-  <si>
-    <t>torza1119</t>
-  </si>
-  <si>
-    <t>ม.14</t>
-  </si>
-  <si>
-    <t>083-4788831</t>
-  </si>
-  <si>
-    <t>torza1120</t>
-  </si>
-  <si>
-    <t>ม.15</t>
-  </si>
-  <si>
-    <t>083-4788832</t>
-  </si>
-  <si>
-    <t>torza1121</t>
-  </si>
-  <si>
-    <t>ม.16</t>
-  </si>
-  <si>
-    <t>083-4788833</t>
-  </si>
-  <si>
-    <t>torza1122</t>
-  </si>
-  <si>
-    <t>ม.17</t>
-  </si>
-  <si>
-    <t>083-4788834</t>
-  </si>
-  <si>
-    <t>torza1123</t>
-  </si>
-  <si>
-    <t>ม.18</t>
-  </si>
-  <si>
-    <t>083-4788835</t>
-  </si>
-  <si>
-    <t>torza1124</t>
-  </si>
-  <si>
-    <t>ม.19</t>
-  </si>
-  <si>
-    <t>083-4788836</t>
-  </si>
-  <si>
-    <t>torza1125</t>
-  </si>
-  <si>
-    <t>ม.20</t>
-  </si>
-  <si>
-    <t>083-4788837</t>
-  </si>
-  <si>
-    <t>torza1126</t>
-  </si>
-  <si>
-    <t>ม.21</t>
-  </si>
-  <si>
-    <t>083-4788838</t>
-  </si>
-  <si>
-    <t>torza1127</t>
-  </si>
-  <si>
-    <t>ม.22</t>
-  </si>
-  <si>
-    <t>083-4788839</t>
-  </si>
-  <si>
-    <t>torza1128</t>
-  </si>
-  <si>
-    <t>ม.23</t>
-  </si>
-  <si>
-    <t>083-4788840</t>
-  </si>
-  <si>
-    <t>torza1129</t>
-  </si>
-  <si>
-    <t>ม.24</t>
-  </si>
-  <si>
-    <t>083-4788841</t>
-  </si>
-  <si>
-    <t>torza1130</t>
-  </si>
-  <si>
-    <t>ม.25</t>
-  </si>
-  <si>
-    <t>083-4788842</t>
-  </si>
-  <si>
-    <t>torza1131</t>
-  </si>
-  <si>
-    <t>ม.26</t>
-  </si>
-  <si>
-    <t>083-4788843</t>
-  </si>
-  <si>
-    <t>torza1132</t>
-  </si>
-  <si>
-    <t>ม.27</t>
-  </si>
-  <si>
-    <t>083-4788844</t>
-  </si>
-  <si>
-    <t>torza1133</t>
-  </si>
-  <si>
-    <t>ม.28</t>
-  </si>
-  <si>
-    <t>083-4788845</t>
-  </si>
-  <si>
-    <t>torza1134</t>
-  </si>
-  <si>
-    <t>ม.29</t>
-  </si>
-  <si>
-    <t>083-4788846</t>
-  </si>
-  <si>
-    <t>torza1135</t>
-  </si>
-  <si>
-    <t>ม.30</t>
-  </si>
-  <si>
-    <t>083-4788847</t>
-  </si>
-  <si>
-    <t>torza1136</t>
-  </si>
-  <si>
-    <t>ม.31</t>
-  </si>
-  <si>
-    <t>083-4788848</t>
-  </si>
-  <si>
-    <t>torza1137</t>
-  </si>
-  <si>
-    <t>ม.32</t>
-  </si>
-  <si>
-    <t>083-4788849</t>
-  </si>
-  <si>
-    <t>torza1138</t>
-  </si>
-  <si>
-    <t>ม.33</t>
-  </si>
-  <si>
-    <t>083-4788850</t>
-  </si>
-  <si>
-    <t>torza1139</t>
-  </si>
-  <si>
-    <t>ม.34</t>
-  </si>
-  <si>
-    <t>083-4788851</t>
-  </si>
-  <si>
-    <t>torza1140</t>
-  </si>
-  <si>
-    <t>ม.35</t>
-  </si>
-  <si>
-    <t>083-4788852</t>
-  </si>
-  <si>
-    <t>torza1141</t>
-  </si>
-  <si>
-    <t>ม.36</t>
-  </si>
-  <si>
-    <t>083-4788853</t>
-  </si>
-  <si>
-    <t>torza1142</t>
-  </si>
-  <si>
-    <t>ม.37</t>
-  </si>
-  <si>
-    <t>083-4788854</t>
-  </si>
-  <si>
-    <t>torza1143</t>
-  </si>
-  <si>
-    <t>ม.38</t>
-  </si>
-  <si>
-    <t>083-4788855</t>
-  </si>
-  <si>
-    <t>torza1144</t>
-  </si>
-  <si>
-    <t>ม.39</t>
-  </si>
-  <si>
-    <t>083-4788856</t>
-  </si>
-  <si>
-    <t>torza1145</t>
-  </si>
-  <si>
-    <t>ม.40</t>
-  </si>
-  <si>
-    <t>083-4788857</t>
-  </si>
-  <si>
-    <t>torza1146</t>
-  </si>
-  <si>
-    <t>ม.41</t>
-  </si>
-  <si>
-    <t>083-4788858</t>
-  </si>
-  <si>
-    <t>torza1147</t>
-  </si>
-  <si>
-    <t>ม.42</t>
-  </si>
-  <si>
-    <t>083-4788859</t>
-  </si>
-  <si>
-    <t>torza1148</t>
-  </si>
-  <si>
-    <t>ม.43</t>
-  </si>
-  <si>
-    <t>083-4788860</t>
-  </si>
-  <si>
-    <t>torza1149</t>
-  </si>
-  <si>
-    <t>ม.44</t>
-  </si>
-  <si>
-    <t>083-4788861</t>
-  </si>
-  <si>
-    <t>torza1150</t>
-  </si>
-  <si>
-    <t>ม.45</t>
-  </si>
-  <si>
-    <t>083-4788862</t>
-  </si>
-  <si>
-    <t>torza1151</t>
-  </si>
-  <si>
-    <t>ม.46</t>
-  </si>
-  <si>
-    <t>083-4788863</t>
-  </si>
-  <si>
-    <t>torza1152</t>
-  </si>
-  <si>
-    <t>ม.47</t>
-  </si>
-  <si>
-    <t>083-4788864</t>
-  </si>
-  <si>
-    <t>torza1153</t>
-  </si>
-  <si>
-    <t>ม.48</t>
-  </si>
-  <si>
-    <t>083-4788865</t>
-  </si>
-  <si>
-    <t>torza1154</t>
-  </si>
-  <si>
-    <t>ม.49</t>
-  </si>
-  <si>
-    <t>083-4788866</t>
-  </si>
-  <si>
-    <t>torza1155</t>
-  </si>
-  <si>
-    <t>ม.50</t>
-  </si>
-  <si>
-    <t>083-4788867</t>
-  </si>
-  <si>
-    <t>torza1156</t>
-  </si>
-  <si>
-    <t>ม.51</t>
-  </si>
-  <si>
-    <t>083-4788868</t>
-  </si>
-  <si>
-    <t>torza1157</t>
-  </si>
-  <si>
-    <t>ม.52</t>
-  </si>
-  <si>
-    <t>083-4788869</t>
-  </si>
-  <si>
-    <t>torza1158</t>
-  </si>
-  <si>
-    <t>ม.53</t>
-  </si>
-  <si>
-    <t>083-4788870</t>
-  </si>
-  <si>
-    <t>torza1159</t>
-  </si>
-  <si>
-    <t>ม.54</t>
-  </si>
-  <si>
-    <t>083-4788871</t>
-  </si>
-  <si>
-    <t>torza1160</t>
-  </si>
-  <si>
-    <t>ม.55</t>
-  </si>
-  <si>
-    <t>083-4788872</t>
-  </si>
-  <si>
-    <t>torza1161</t>
-  </si>
-  <si>
-    <t>ม.56</t>
-  </si>
-  <si>
-    <t>083-4788873</t>
-  </si>
-  <si>
-    <t>torza1162</t>
-  </si>
-  <si>
-    <t>ม.57</t>
-  </si>
-  <si>
-    <t>083-4788874</t>
-  </si>
-  <si>
-    <t>torza1163</t>
-  </si>
-  <si>
-    <t>ม.58</t>
-  </si>
-  <si>
-    <t>083-4788875</t>
-  </si>
-  <si>
-    <t>torza1164</t>
-  </si>
-  <si>
-    <t>ม.59</t>
-  </si>
-  <si>
-    <t>083-4788876</t>
-  </si>
-  <si>
-    <t>torza1165</t>
-  </si>
-  <si>
-    <t>ม.60</t>
-  </si>
-  <si>
-    <t>083-4788877</t>
-  </si>
-  <si>
-    <t>torza1166</t>
-  </si>
-  <si>
-    <t>ม.61</t>
-  </si>
-  <si>
-    <t>083-4788878</t>
-  </si>
-  <si>
-    <t>torza1167</t>
-  </si>
-  <si>
-    <t>ม.62</t>
-  </si>
-  <si>
-    <t>083-4788879</t>
-  </si>
-  <si>
-    <t>torza1168</t>
-  </si>
-  <si>
-    <t>ม.63</t>
-  </si>
-  <si>
-    <t>083-4788880</t>
-  </si>
-  <si>
-    <t>torza1169</t>
-  </si>
-  <si>
-    <t>ม.64</t>
-  </si>
-  <si>
-    <t>083-4788881</t>
-  </si>
-  <si>
-    <t>torza1170</t>
-  </si>
-  <si>
-    <t>ม.65</t>
-  </si>
-  <si>
-    <t>083-4788882</t>
-  </si>
-  <si>
-    <t>torza1171</t>
-  </si>
-  <si>
-    <t>ม.66</t>
-  </si>
-  <si>
-    <t>083-4788883</t>
-  </si>
-  <si>
-    <t>torza1172</t>
-  </si>
-  <si>
-    <t>ม.67</t>
-  </si>
-  <si>
-    <t>083-4788884</t>
-  </si>
-  <si>
-    <t>torza1173</t>
-  </si>
-  <si>
-    <t>ม.68</t>
-  </si>
-  <si>
-    <t>083-4788885</t>
-  </si>
-  <si>
-    <t>torza1174</t>
-  </si>
-  <si>
-    <t>ม.69</t>
-  </si>
-  <si>
-    <t>083-4788886</t>
-  </si>
-  <si>
-    <t>torza1175</t>
-  </si>
-  <si>
-    <t>ม.70</t>
-  </si>
-  <si>
-    <t>083-4788887</t>
-  </si>
-  <si>
-    <t>torza1176</t>
-  </si>
-  <si>
-    <t>ม.71</t>
-  </si>
-  <si>
-    <t>083-4788888</t>
-  </si>
-  <si>
-    <t>torza1177</t>
-  </si>
-  <si>
-    <t>ม.72</t>
-  </si>
-  <si>
-    <t>083-4788889</t>
-  </si>
-  <si>
-    <t>torza1178</t>
-  </si>
-  <si>
-    <t>ม.73</t>
-  </si>
-  <si>
-    <t>083-4788890</t>
-  </si>
-  <si>
-    <t>torza1179</t>
-  </si>
-  <si>
-    <t>ม.74</t>
-  </si>
-  <si>
-    <t>083-4788891</t>
-  </si>
-  <si>
-    <t>torza1180</t>
-  </si>
-  <si>
-    <t>ม.75</t>
-  </si>
-  <si>
-    <t>083-4788892</t>
-  </si>
-  <si>
-    <t>torza1181</t>
-  </si>
-  <si>
-    <t>ม.76</t>
-  </si>
-  <si>
-    <t>083-4788893</t>
-  </si>
-  <si>
-    <t>torza1182</t>
-  </si>
-  <si>
-    <t>ม.77</t>
-  </si>
-  <si>
-    <t>083-4788894</t>
-  </si>
-  <si>
-    <t>torza1183</t>
-  </si>
-  <si>
-    <t>ม.78</t>
-  </si>
-  <si>
-    <t>083-4788895</t>
-  </si>
-  <si>
-    <t>torza1184</t>
-  </si>
-  <si>
-    <t>ม.79</t>
-  </si>
-  <si>
-    <t>083-4788896</t>
-  </si>
-  <si>
-    <t>torza1185</t>
-  </si>
-  <si>
-    <t>ม.80</t>
-  </si>
-  <si>
-    <t>083-4788897</t>
-  </si>
-  <si>
-    <t>torza1186</t>
-  </si>
-  <si>
-    <t>ม.81</t>
-  </si>
-  <si>
-    <t>083-4788898</t>
-  </si>
-  <si>
-    <t>torza1187</t>
-  </si>
-  <si>
-    <t>ม.82</t>
-  </si>
-  <si>
-    <t>083-4788899</t>
-  </si>
-  <si>
-    <t>torza1188</t>
-  </si>
-  <si>
-    <t>ม.83</t>
-  </si>
-  <si>
-    <t>083-4788900</t>
-  </si>
-  <si>
-    <t>torza1189</t>
-  </si>
-  <si>
-    <t>ม.84</t>
-  </si>
-  <si>
-    <t>083-4788901</t>
-  </si>
-  <si>
-    <t>torza1190</t>
-  </si>
-  <si>
-    <t>ม.85</t>
-  </si>
-  <si>
-    <t>083-4788902</t>
-  </si>
-  <si>
-    <t>torza1191</t>
-  </si>
-  <si>
-    <t>ม.86</t>
-  </si>
-  <si>
-    <t>083-4788903</t>
-  </si>
-  <si>
-    <t>torza1192</t>
-  </si>
-  <si>
-    <t>ม.87</t>
-  </si>
-  <si>
-    <t>083-4788904</t>
-  </si>
-  <si>
-    <t>torza1193</t>
-  </si>
-  <si>
-    <t>ม.88</t>
-  </si>
-  <si>
-    <t>083-4788905</t>
-  </si>
-  <si>
-    <t>torza1194</t>
-  </si>
-  <si>
-    <t>ม.89</t>
-  </si>
-  <si>
-    <t>083-4788906</t>
-  </si>
-  <si>
-    <t>torza1195</t>
-  </si>
-  <si>
-    <t>ม.90</t>
-  </si>
-  <si>
-    <t>083-4788907</t>
-  </si>
-  <si>
-    <t>torza1196</t>
-  </si>
-  <si>
-    <t>ม.91</t>
-  </si>
-  <si>
-    <t>083-4788908</t>
-  </si>
-  <si>
-    <t>torza1197</t>
-  </si>
-  <si>
-    <t>ม.92</t>
-  </si>
-  <si>
-    <t>083-4788909</t>
-  </si>
-  <si>
-    <t>torza1198</t>
-  </si>
-  <si>
-    <t>ม.93</t>
-  </si>
-  <si>
-    <t>083-4788910</t>
-  </si>
-  <si>
-    <t>torza1199</t>
-  </si>
-  <si>
-    <t>ม.94</t>
-  </si>
-  <si>
-    <t>083-4788911</t>
-  </si>
-  <si>
-    <t>torza1200</t>
-  </si>
-  <si>
-    <t>ม.95</t>
-  </si>
-  <si>
-    <t>083-4788912</t>
-  </si>
-  <si>
-    <t>torza1201</t>
-  </si>
-  <si>
-    <t>ม.96</t>
-  </si>
-  <si>
-    <t>083-4788913</t>
-  </si>
-  <si>
-    <t>torza1202</t>
-  </si>
-  <si>
-    <t>ม.97</t>
-  </si>
-  <si>
-    <t>083-4788914</t>
-  </si>
-  <si>
-    <t>torza1203</t>
-  </si>
-  <si>
-    <t>ม.98</t>
-  </si>
-  <si>
-    <t>083-4788915</t>
-  </si>
-  <si>
-    <t>torza1204</t>
-  </si>
-  <si>
-    <t>ม.99</t>
-  </si>
-  <si>
-    <t>083-4788916</t>
-  </si>
-  <si>
-    <t>torza1205</t>
-  </si>
-  <si>
-    <t>ม.100</t>
-  </si>
-  <si>
-    <t>083-4788917</t>
-  </si>
-  <si>
-    <t>torza1206</t>
-  </si>
-  <si>
-    <t>ม.101</t>
-  </si>
-  <si>
-    <t>083-4788918</t>
-  </si>
-  <si>
-    <t>torza1207</t>
+    <t>นางสาว</t>
+  </si>
+  <si>
+    <t>นฤพร จองวัฒนากิจ</t>
+  </si>
+  <si>
+    <t>รัตนาภร  เนื่องหล้า</t>
+  </si>
+  <si>
+    <t>สุธีรา ถาริยะ</t>
+  </si>
+  <si>
+    <t>แพรชมพู ปกครองบ้าน</t>
+  </si>
+  <si>
+    <t>ปัจรัตน์ ปุระตา</t>
+  </si>
+  <si>
+    <t>เสมอปลาย จันธิมา</t>
+  </si>
+  <si>
+    <t>ธัญลักษณ์ ยานัน</t>
+  </si>
+  <si>
+    <t>พิมพ์ชนก บัวสุวรรณ</t>
+  </si>
+  <si>
+    <t>น้ำทิพย์ ขัดแก้ว</t>
+  </si>
+  <si>
+    <t>วราภรณ์ สิทธิธรรม</t>
+  </si>
+  <si>
+    <t>ธนิตา ชุ่มมะโน</t>
+  </si>
+  <si>
+    <t>นภสร พิทักษ์กำพล</t>
+  </si>
+  <si>
+    <t>พชรพร พรมนิกร</t>
+  </si>
+  <si>
+    <t>กันตพงศ์ ชลสินธุ์</t>
+  </si>
+  <si>
+    <t>ธัญญรักษ์ แว่นปันชัย</t>
+  </si>
+  <si>
+    <t>อรอนงค์ คงภูศรี</t>
+  </si>
+  <si>
+    <t>วีณา กว้านสกุล</t>
+  </si>
+  <si>
+    <t>วุฒินันท์ สิงห์คะนันท์</t>
+  </si>
+  <si>
+    <t>สุุชาญา เสาร์แก้ว</t>
+  </si>
+  <si>
+    <t>ปุณยาพร อ่อนตระกูล</t>
+  </si>
+  <si>
+    <t>สุนิสา จันทร์ใส</t>
+  </si>
+  <si>
+    <t>ตะวัน นาคสุข</t>
+  </si>
+  <si>
+    <t>ประดับดาว นาคสุข</t>
+  </si>
+  <si>
+    <t>ธนธร เต็มสิริมงคล</t>
+  </si>
+  <si>
+    <t>พลพล มารินทริ์</t>
+  </si>
+  <si>
+    <t>มนัสเสห์ อยู่สันติกุล</t>
+  </si>
+  <si>
+    <t>ฐิติพร ธนโชติเจริญ</t>
+  </si>
+  <si>
+    <t>สวรส สมศรี</t>
+  </si>
+  <si>
+    <t>สิดาพร ผลเจริญ</t>
+  </si>
+  <si>
+    <t>กุลธิดา วงศ์มา</t>
+  </si>
+  <si>
+    <t>แพรพลอย รัตนชัย</t>
+  </si>
+  <si>
+    <t>พรพิชา ว่องไวชนะกล</t>
+  </si>
+  <si>
+    <t>พัชราภรณ์ จำนงค์</t>
+  </si>
+  <si>
+    <t>สุจาฬิณี สุดสม</t>
+  </si>
+  <si>
+    <t>พีรวัส กุตนันท์</t>
+  </si>
+  <si>
+    <t>กฤตภาส ดำรงพานิชชัย</t>
+  </si>
+  <si>
+    <t>ชินโชติ นันชา</t>
+  </si>
+  <si>
+    <t>ญาดาวดี ปูธิปิน</t>
+  </si>
+  <si>
+    <t>เบญญา มั่นรอด</t>
+  </si>
+  <si>
+    <t>ปุณยนุช นิลหิรัญ</t>
+  </si>
+  <si>
+    <t>ศักรินทร์ ยอดแก้ว</t>
+  </si>
+  <si>
+    <t>ภัสราพร จันเลน</t>
+  </si>
+  <si>
+    <t>กมลชนก ใจเปี้ย</t>
+  </si>
+  <si>
+    <t>มนัสนันท์ กันธิยะ</t>
+  </si>
+  <si>
+    <t>ณาชา โคราช</t>
+  </si>
+  <si>
+    <t>ทิพยาภรณ์ เรือนคำ</t>
+  </si>
+  <si>
+    <t>นลัท จุมปูอา</t>
+  </si>
+  <si>
+    <t>สุทธวิชญ์  โปธา</t>
+  </si>
+  <si>
+    <t>ชิมบุน ยามากุชิ</t>
+  </si>
+  <si>
+    <t>จุฑามาศ ต๊ะต้องใจ</t>
+  </si>
+  <si>
+    <t>ศิรครินทร์ ทองเปลว</t>
+  </si>
+  <si>
+    <t>ศตวรรษ ทะลือชัย</t>
+  </si>
+  <si>
+    <t>ชลิตา ขะขอม</t>
+  </si>
+  <si>
+    <t>เอมิกา นุธรรม</t>
+  </si>
+  <si>
+    <t>กัญญณัฐ เรือแก้ว</t>
+  </si>
+  <si>
+    <t>สร้อยฟ้า ทาแกง</t>
+  </si>
+  <si>
+    <t>เทพอิทธิ ริยะอุต</t>
+  </si>
+  <si>
+    <t>กัลยกร นัยติ๊บ</t>
+  </si>
+  <si>
+    <t>พิมพ์พร มะลัยโย</t>
+  </si>
+  <si>
+    <t>สุพิชญา จำปา</t>
+  </si>
+  <si>
+    <t>สุขศิริ อินตาวงค์</t>
+  </si>
+  <si>
+    <t>ซาโตรุ มูระยามะ</t>
+  </si>
+  <si>
+    <t>เนส</t>
+  </si>
+  <si>
+    <t>ม.5</t>
+  </si>
+  <si>
+    <t>เฟรม</t>
+  </si>
+  <si>
+    <t>นาเดียร์</t>
+  </si>
+  <si>
+    <t>มิว</t>
+  </si>
+  <si>
+    <t>มาแจม</t>
+  </si>
+  <si>
+    <t>ปลาย</t>
+  </si>
+  <si>
+    <t>ซิน</t>
+  </si>
+  <si>
+    <t>แจน</t>
+  </si>
+  <si>
+    <t>น้ำทิพย์</t>
+  </si>
+  <si>
+    <t>แก้มใส</t>
+  </si>
+  <si>
+    <t>ม.4</t>
+  </si>
+  <si>
+    <t>สกาว</t>
+  </si>
+  <si>
+    <t>หมอก</t>
+  </si>
+  <si>
+    <t>มี่</t>
+  </si>
+  <si>
+    <t>แบงค์</t>
+  </si>
+  <si>
+    <t>กิ๊บ</t>
+  </si>
+  <si>
+    <t>กุ๊กกิ๊ก</t>
+  </si>
+  <si>
+    <t>วีณา</t>
+  </si>
+  <si>
+    <t>เอ็นดู</t>
+  </si>
+  <si>
+    <t>ป๊อป</t>
+  </si>
+  <si>
+    <t>ออมแอม</t>
+  </si>
+  <si>
+    <t>มิ้น</t>
+  </si>
+  <si>
+    <t>ตะวัน</t>
+  </si>
+  <si>
+    <t>ดาว</t>
+  </si>
+  <si>
+    <t>โกล์ด</t>
+  </si>
+  <si>
+    <t>พล</t>
+  </si>
+  <si>
+    <t>โนเอล</t>
+  </si>
+  <si>
+    <t>เพียว</t>
+  </si>
+  <si>
+    <t>ไอซ์</t>
+  </si>
+  <si>
+    <t>กิ๊ฟ</t>
+  </si>
+  <si>
+    <t>น้ำผึ้ง</t>
+  </si>
+  <si>
+    <t>แพร</t>
+  </si>
+  <si>
+    <t>ไมโครโฟน</t>
+  </si>
+  <si>
+    <t>สา</t>
+  </si>
+  <si>
+    <t>คิมหันต์</t>
+  </si>
+  <si>
+    <t>ฮีโร่</t>
+  </si>
+  <si>
+    <t>จ๊อบ</t>
+  </si>
+  <si>
+    <t>ซิม</t>
+  </si>
+  <si>
+    <t>ออมสิน</t>
+  </si>
+  <si>
+    <t>ออกััสท์</t>
+  </si>
+  <si>
+    <t>พลอยสวย</t>
+  </si>
+  <si>
+    <t>โจ</t>
+  </si>
+  <si>
+    <t>สตางค์</t>
+  </si>
+  <si>
+    <t>ปิ่น</t>
+  </si>
+  <si>
+    <t>สีน้ำ</t>
+  </si>
+  <si>
+    <t>โมบาย</t>
+  </si>
+  <si>
+    <t>แบม</t>
+  </si>
+  <si>
+    <t>แสตมป์</t>
+  </si>
+  <si>
+    <t>ดอม</t>
+  </si>
+  <si>
+    <t>ชิมบุน</t>
+  </si>
+  <si>
+    <t>ใบเฟิร์น</t>
+  </si>
+  <si>
+    <t>แก้ม</t>
+  </si>
+  <si>
+    <t>แฟรงค์</t>
+  </si>
+  <si>
+    <t>ออย</t>
+  </si>
+  <si>
+    <t>ดาฟบี้</t>
+  </si>
+  <si>
+    <t>บาย</t>
+  </si>
+  <si>
+    <t>ตั้ล</t>
+  </si>
+  <si>
+    <t>เอิร์น</t>
+  </si>
+  <si>
+    <t>พิมพ์</t>
+  </si>
+  <si>
+    <t>แคท</t>
+  </si>
+  <si>
+    <t>โบว์</t>
+  </si>
+  <si>
+    <t>รุ</t>
+  </si>
+  <si>
+    <t>จักรคำคณาทร</t>
+  </si>
+  <si>
+    <t>ลำพูน</t>
+  </si>
+  <si>
+    <t>จุฬาภรณราชวิทยาลัย เชียงราย</t>
+  </si>
+  <si>
+    <t>เชียงของวิทยาคม</t>
+  </si>
+  <si>
+    <t>ดำรงราษฎร์สงเคราะห์</t>
+  </si>
+  <si>
+    <t>ดำรงราษฏร์สงเคราะห์</t>
+  </si>
+  <si>
+    <t>เตรียมอุดมศึกษาภาคใต้</t>
+  </si>
+  <si>
+    <t>นครศรีธรรมราช</t>
+  </si>
+  <si>
+    <t>ประจวบวิทยาลัย</t>
+  </si>
+  <si>
+    <t>ประจวบคีรีขันธ์</t>
+  </si>
+  <si>
+    <t>พะเยาพิทยาคม</t>
+  </si>
+  <si>
+    <t>พะเยา</t>
+  </si>
+  <si>
+    <t>แม่สายประสิทธิ์ศาสตร์</t>
+  </si>
+  <si>
+    <t>สตรีศรีน่าน</t>
+  </si>
+  <si>
+    <t>น่าน</t>
+  </si>
+  <si>
+    <t>สมุทรสาครวิทยาลัย</t>
+  </si>
+  <si>
+    <t>สมุทรสาคร</t>
+  </si>
+  <si>
+    <t>สามัคคีวิทยาคม</t>
+  </si>
+  <si>
+    <t>ห้วยซ้อวิทยาคม</t>
+  </si>
+  <si>
+    <t>องค์การบริหารส่วนจังหวัดเชียงราย</t>
+  </si>
+  <si>
+    <t>XXL</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>XL</t>
+  </si>
+  <si>
+    <t>099-2702128</t>
+  </si>
+  <si>
+    <t>nest-190845</t>
+  </si>
+  <si>
+    <t>061-1867051</t>
+  </si>
+  <si>
+    <t>frem1712</t>
+  </si>
+  <si>
+    <t>091-1746515</t>
+  </si>
+  <si>
+    <t>s.teeraaa</t>
+  </si>
+  <si>
+    <t>093-4941539</t>
+  </si>
+  <si>
+    <t>dutchmiw12</t>
+  </si>
+  <si>
+    <t>064-1763161</t>
+  </si>
+  <si>
+    <t>jammypadjarat</t>
+  </si>
+  <si>
+    <t>091-070-3231</t>
+  </si>
+  <si>
+    <t>plyzeiei</t>
+  </si>
+  <si>
+    <t>080-8461929</t>
+  </si>
+  <si>
+    <t>senoritasin</t>
+  </si>
+  <si>
+    <t>092-1029995</t>
+  </si>
+  <si>
+    <t>jan0921961722</t>
+  </si>
+  <si>
+    <t>062-0381545</t>
+  </si>
+  <si>
+    <t>061-4742176</t>
+  </si>
+  <si>
+    <t>iam.gamsai</t>
+  </si>
+  <si>
+    <t>0956786570</t>
+  </si>
+  <si>
+    <t>sagaw_thanita</t>
+  </si>
+  <si>
+    <t>095-6875377</t>
+  </si>
+  <si>
+    <t>mntp2701</t>
+  </si>
+  <si>
+    <t>064-2859039</t>
+  </si>
+  <si>
+    <t>061-1172092</t>
+  </si>
+  <si>
+    <t>bank_sb</t>
+  </si>
+  <si>
+    <t>096-6091762</t>
+  </si>
+  <si>
+    <t>lovegib1234</t>
+  </si>
+  <si>
+    <t>092-0653838</t>
+  </si>
+  <si>
+    <t>Kukkik_2944</t>
+  </si>
+  <si>
+    <t>065-4386736</t>
+  </si>
+  <si>
+    <t>vena_kwansakul</t>
+  </si>
+  <si>
+    <t>085-670759</t>
+  </si>
+  <si>
+    <t>endu0022med</t>
+  </si>
+  <si>
+    <t>090-3243451</t>
+  </si>
+  <si>
+    <t>popsuchaya</t>
+  </si>
+  <si>
+    <t>095-4488644</t>
+  </si>
+  <si>
+    <t>aompunyaporn095</t>
+  </si>
+  <si>
+    <t>065-3028886</t>
+  </si>
+  <si>
+    <t>mint_m.1.10</t>
+  </si>
+  <si>
+    <t>086-3089225</t>
+  </si>
+  <si>
+    <t>Bombay</t>
+  </si>
+  <si>
+    <t>090-3193888</t>
+  </si>
+  <si>
+    <t>downy2008</t>
+  </si>
+  <si>
+    <t>0905206007</t>
+  </si>
+  <si>
+    <t>man9oboys</t>
+  </si>
+  <si>
+    <t>093-2269266</t>
+  </si>
+  <si>
+    <t>music12473</t>
+  </si>
+  <si>
+    <t>094-4956311</t>
+  </si>
+  <si>
+    <t>panpanit777</t>
+  </si>
+  <si>
+    <t>086-3193454</t>
+  </si>
+  <si>
+    <t>p162cm_</t>
+  </si>
+  <si>
+    <t>0931914761</t>
+  </si>
+  <si>
+    <t>Icezye</t>
+  </si>
+  <si>
+    <t>0918522157</t>
+  </si>
+  <si>
+    <t>ssidaporn_gife</t>
+  </si>
+  <si>
+    <t>0987817068</t>
+  </si>
+  <si>
+    <t>phunglalala</t>
+  </si>
+  <si>
+    <t>094-7038644</t>
+  </si>
+  <si>
+    <t>097-2016768</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>065-4020690</t>
+  </si>
+  <si>
+    <t>064-0541649</t>
+  </si>
+  <si>
+    <t>kimk.s.</t>
+  </si>
+  <si>
+    <t>098-2548852</t>
+  </si>
+  <si>
+    <t>herocaf1111</t>
+  </si>
+  <si>
+    <t>093-1832221</t>
+  </si>
+  <si>
+    <t>job21052547</t>
+  </si>
+  <si>
+    <t>099-1390366</t>
+  </si>
+  <si>
+    <t>091-8588430</t>
+  </si>
+  <si>
+    <t>aomsin430</t>
+  </si>
+  <si>
+    <t>085-0379593</t>
+  </si>
+  <si>
+    <t>auugst</t>
+  </si>
+  <si>
+    <t>095-6908481</t>
+  </si>
+  <si>
+    <t>ploys2525</t>
+  </si>
+  <si>
+    <t>092-7269697</t>
+  </si>
+  <si>
+    <t>sakkarin_joe</t>
+  </si>
+  <si>
+    <t>093-2130492</t>
+  </si>
+  <si>
+    <t>088-0509756</t>
+  </si>
+  <si>
+    <t>khamonchanok26</t>
+  </si>
+  <si>
+    <t>093-1381733</t>
+  </si>
+  <si>
+    <t>sinam41948</t>
+  </si>
+  <si>
+    <t>093-1546915</t>
+  </si>
+  <si>
+    <t>093-1686020</t>
+  </si>
+  <si>
+    <t>063-5195711</t>
+  </si>
+  <si>
+    <t>iamnalat</t>
+  </si>
+  <si>
+    <t>063-5302004</t>
+  </si>
+  <si>
+    <t>0947251996</t>
+  </si>
+  <si>
+    <t>0918560368</t>
+  </si>
+  <si>
+    <t>ozzaka</t>
+  </si>
+  <si>
+    <t>0661090702</t>
+  </si>
+  <si>
+    <t>jutanart.tatongjai</t>
+  </si>
+  <si>
+    <t>063-0456779</t>
+  </si>
+  <si>
+    <t>0620456779</t>
+  </si>
+  <si>
+    <t>0814294374</t>
+  </si>
+  <si>
+    <t>pp.parank1103</t>
+  </si>
+  <si>
+    <t>061-8696585</t>
+  </si>
+  <si>
+    <t>0618696585</t>
+  </si>
+  <si>
+    <t>061-3205966</t>
+  </si>
+  <si>
+    <t>62442_62442oil</t>
+  </si>
+  <si>
+    <t>093-1496732</t>
+  </si>
+  <si>
+    <t>darfbi1234</t>
+  </si>
+  <si>
+    <t>061-3183211</t>
+  </si>
+  <si>
+    <t>thakaeng</t>
+  </si>
+  <si>
+    <t>094-5585978</t>
+  </si>
+  <si>
+    <t>083-322531</t>
+  </si>
+  <si>
+    <t>065-8366894</t>
+  </si>
+  <si>
+    <t>earn5427</t>
+  </si>
+  <si>
+    <t>095-7050394</t>
+  </si>
+  <si>
+    <t>0620271608</t>
+  </si>
+  <si>
+    <t>080-1321249</t>
+  </si>
+  <si>
+    <t>0613655655</t>
+  </si>
+  <si>
+    <t>063-1684143</t>
+  </si>
+  <si>
+    <t>bow_suksiri</t>
+  </si>
+  <si>
+    <t>095-6758207</t>
+  </si>
+  <si>
+    <t>Satoru31072544</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -987,8 +930,12 @@
       <name val="Roboto"/>
       <charset val="222"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1025,8 +972,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7E1CD"/>
+        <bgColor rgb="FFB7E1CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6D7A8"/>
+        <bgColor rgb="FFB6D7A8"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1091,11 +1050,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1131,11 +1103,47 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1360,8 +1368,8 @@
   </sheetPr>
   <dimension ref="A1:R987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="K97" sqref="K97"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1460,31 +1468,31 @@
     </row>
     <row r="3" spans="1:18" ht="15.75" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>146</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>13</v>
+        <v>165</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>17</v>
+        <v>169</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>18</v>
+        <v>170</v>
       </c>
       <c r="J3" s="13"/>
       <c r="K3" s="15"/>
@@ -1497,32 +1505,32 @@
       <c r="R3" s="3"/>
     </row>
     <row r="4" spans="1:18" ht="14.25">
-      <c r="A4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="A4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="9" t="s">
+      <c r="E4" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" s="24" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>18</v>
+      <c r="H4" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="J4" s="13"/>
       <c r="K4" s="15"/>
@@ -1535,32 +1543,32 @@
       <c r="R4" s="3"/>
     </row>
     <row r="5" spans="1:18" ht="14.25">
-      <c r="A5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="9" t="s">
+      <c r="B5" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" s="24" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>21</v>
+        <v>166</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>174</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="15"/>
@@ -1573,32 +1581,32 @@
       <c r="R5" s="6"/>
     </row>
     <row r="6" spans="1:18" ht="12.75">
-      <c r="A6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="9" t="s">
+      <c r="A6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="F6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>24</v>
+      <c r="H6" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>176</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="15"/>
@@ -1612,31 +1620,31 @@
     </row>
     <row r="7" spans="1:18" ht="14.25">
       <c r="A7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>87</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>27</v>
+        <v>167</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>178</v>
       </c>
       <c r="J7" s="13"/>
       <c r="K7" s="15"/>
@@ -1650,31 +1658,31 @@
     </row>
     <row r="8" spans="1:18" ht="14.25">
       <c r="A8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>88</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>30</v>
+        <v>167</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>180</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="15"/>
@@ -1688,31 +1696,31 @@
     </row>
     <row r="9" spans="1:18" ht="12.75">
       <c r="A9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="24" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>32</v>
+        <v>181</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>33</v>
+        <v>182</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="15"/>
@@ -1726,31 +1734,31 @@
     </row>
     <row r="10" spans="1:18" ht="12.75">
       <c r="A10" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="24" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>35</v>
+        <v>183</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>36</v>
+        <v>184</v>
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="15"/>
@@ -1764,31 +1772,31 @@
     </row>
     <row r="11" spans="1:18" ht="12.75">
       <c r="A11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" s="24" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>13</v>
+        <v>166</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>38</v>
+        <v>185</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>39</v>
+        <v>185</v>
       </c>
       <c r="J11" s="13"/>
       <c r="K11" s="15"/>
@@ -1802,31 +1810,31 @@
     </row>
     <row r="12" spans="1:18" ht="12.75">
       <c r="A12" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="F12" s="24" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>13</v>
+        <v>166</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>41</v>
+        <v>186</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>42</v>
+        <v>187</v>
       </c>
       <c r="J12" s="13"/>
       <c r="K12" s="15"/>
@@ -1839,32 +1847,32 @@
       <c r="R12" s="7"/>
     </row>
     <row r="13" spans="1:18" ht="12.75">
-      <c r="A13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>14</v>
+      <c r="A13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>45</v>
+      <c r="H13" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>189</v>
       </c>
       <c r="J13" s="13"/>
       <c r="K13" s="15"/>
@@ -1878,31 +1886,31 @@
     </row>
     <row r="14" spans="1:18" ht="12.75">
       <c r="A14" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="24" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>13</v>
+        <v>166</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
       <c r="J14" s="13"/>
       <c r="K14" s="15"/>
@@ -1916,31 +1924,31 @@
     </row>
     <row r="15" spans="1:18" ht="12.75">
       <c r="A15" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" s="24" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>50</v>
+        <v>192</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>51</v>
+        <v>192</v>
       </c>
       <c r="J15" s="13"/>
       <c r="K15" s="15"/>
@@ -1956,29 +1964,29 @@
       <c r="A16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>11</v>
+      <c r="B16" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>152</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>13</v>
+        <v>166</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>53</v>
+        <v>193</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>54</v>
+        <v>194</v>
       </c>
       <c r="J16" s="13"/>
       <c r="K16" s="15"/>
@@ -1992,31 +2000,31 @@
     </row>
     <row r="17" spans="1:18" ht="12.75">
       <c r="A17" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="24" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>13</v>
+        <v>167</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>56</v>
+        <v>195</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>57</v>
+        <v>196</v>
       </c>
       <c r="J17" s="13"/>
       <c r="K17" s="15"/>
@@ -2030,31 +2038,31 @@
     </row>
     <row r="18" spans="1:18" ht="12.75">
       <c r="A18" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="24" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>59</v>
+        <v>197</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>60</v>
+        <v>198</v>
       </c>
       <c r="J18" s="13"/>
       <c r="K18" s="15"/>
@@ -2068,31 +2076,31 @@
     </row>
     <row r="19" spans="1:18" ht="12.75">
       <c r="A19" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="24" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>62</v>
+        <v>199</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>63</v>
+        <v>200</v>
       </c>
       <c r="J19" s="13"/>
       <c r="K19" s="15"/>
@@ -2108,29 +2116,29 @@
       <c r="A20" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="9" t="s">
+      <c r="B20" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="24" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>13</v>
+        <v>166</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>65</v>
+        <v>201</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>66</v>
+        <v>202</v>
       </c>
       <c r="J20" s="13"/>
       <c r="K20" s="15"/>
@@ -2144,31 +2152,31 @@
     </row>
     <row r="21" spans="1:18" ht="12.75">
       <c r="A21" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="24" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>13</v>
+        <v>166</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>68</v>
+        <v>203</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>69</v>
+        <v>204</v>
       </c>
       <c r="J21" s="13"/>
       <c r="K21" s="15"/>
@@ -2182,31 +2190,31 @@
     </row>
     <row r="22" spans="1:18" ht="12.75">
       <c r="A22" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="24" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>71</v>
+        <v>205</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>72</v>
+        <v>206</v>
       </c>
       <c r="J22" s="13"/>
       <c r="K22" s="15"/>
@@ -2220,31 +2228,31 @@
     </row>
     <row r="23" spans="1:18" ht="12.75">
       <c r="A23" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="24" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>74</v>
+        <v>207</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>75</v>
+        <v>208</v>
       </c>
       <c r="J23" s="13"/>
       <c r="K23" s="15"/>
@@ -2260,29 +2268,29 @@
       <c r="A24" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="9" t="s">
+      <c r="B24" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="24" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>77</v>
+        <v>209</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>78</v>
+        <v>210</v>
       </c>
       <c r="J24" s="13"/>
       <c r="K24" s="15"/>
@@ -2295,32 +2303,32 @@
       <c r="R24" s="7"/>
     </row>
     <row r="25" spans="1:18" ht="12.75">
-      <c r="A25" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" s="9" t="s">
+      <c r="A25" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>81</v>
+      <c r="H25" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="I25" s="25" t="s">
+        <v>212</v>
       </c>
       <c r="J25" s="13"/>
       <c r="K25" s="15"/>
@@ -2333,32 +2341,32 @@
       <c r="R25" s="7"/>
     </row>
     <row r="26" spans="1:18" ht="12.75">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E26" s="9" t="s">
+      <c r="B26" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>84</v>
+      <c r="G26" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="I26" s="25" t="s">
+        <v>214</v>
       </c>
       <c r="J26" s="13"/>
       <c r="K26" s="15"/>
@@ -2374,14 +2382,14 @@
       <c r="A27" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>15</v>
+      <c r="B27" s="25" t="s">
+        <v>44</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>14</v>
@@ -2390,13 +2398,13 @@
         <v>11</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>87</v>
+        <v>168</v>
+      </c>
+      <c r="H27" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="I27" s="25" t="s">
+        <v>216</v>
       </c>
       <c r="J27" s="13"/>
       <c r="K27" s="15"/>
@@ -2412,29 +2420,29 @@
       <c r="A28" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>11</v>
+      <c r="B28" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>154</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>13</v>
+        <v>166</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>89</v>
+        <v>217</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>90</v>
+        <v>218</v>
       </c>
       <c r="J28" s="13"/>
       <c r="K28" s="15"/>
@@ -2447,32 +2455,32 @@
       <c r="R28" s="7"/>
     </row>
     <row r="29" spans="1:18" ht="12.75">
-      <c r="A29" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>14</v>
+      <c r="A29" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>155</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>93</v>
+        <v>156</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>220</v>
       </c>
       <c r="J29" s="13"/>
       <c r="K29" s="15"/>
@@ -2485,32 +2493,32 @@
       <c r="R29" s="7"/>
     </row>
     <row r="30" spans="1:18" ht="12.75">
-      <c r="A30" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>14</v>
+      <c r="A30" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>155</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G30" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H30" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>96</v>
+      <c r="H30" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>222</v>
       </c>
       <c r="J30" s="13"/>
       <c r="K30" s="15"/>
@@ -2524,31 +2532,31 @@
     </row>
     <row r="31" spans="1:18" ht="12.75">
       <c r="A31" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>156</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>99</v>
+        <v>166</v>
+      </c>
+      <c r="H31" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="I31" s="25" t="s">
+        <v>224</v>
       </c>
       <c r="J31" s="13"/>
       <c r="K31" s="15"/>
@@ -2562,31 +2570,31 @@
     </row>
     <row r="32" spans="1:18" ht="12.75">
       <c r="A32" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>113</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H32" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>102</v>
+      <c r="H32" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="I32" s="25" t="s">
+        <v>226</v>
       </c>
       <c r="J32" s="13"/>
       <c r="K32" s="15"/>
@@ -2600,31 +2608,31 @@
     </row>
     <row r="33" spans="1:18" ht="12.75">
       <c r="A33" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="F33" s="24" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>105</v>
+        <v>227</v>
+      </c>
+      <c r="I33" s="9">
+        <v>947038644</v>
       </c>
       <c r="J33" s="13"/>
       <c r="K33" s="15"/>
@@ -2638,31 +2646,31 @@
     </row>
     <row r="34" spans="1:18" ht="12.75">
       <c r="A34" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="F34" s="24" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>13</v>
+        <v>166</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>107</v>
+        <v>228</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>108</v>
+        <v>229</v>
       </c>
       <c r="J34" s="13"/>
       <c r="K34" s="15"/>
@@ -2676,32 +2684,30 @@
     </row>
     <row r="35" spans="1:18" ht="12.75">
       <c r="A35" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="F35" s="24" t="s">
         <v>11</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>13</v>
+        <v>166</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>111</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="I35" s="8"/>
       <c r="J35" s="13"/>
       <c r="K35" s="15"/>
       <c r="L35" s="15"/>
@@ -2713,32 +2719,32 @@
       <c r="R35" s="7"/>
     </row>
     <row r="36" spans="1:18" ht="12.75">
-      <c r="A36" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="9" t="s">
+      <c r="A36" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="G36" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H36" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>114</v>
+      <c r="H36" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="I36" s="25" t="s">
+        <v>232</v>
       </c>
       <c r="J36" s="13"/>
       <c r="K36" s="15"/>
@@ -2754,29 +2760,29 @@
       <c r="A37" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>11</v>
+      <c r="B37" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>161</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>13</v>
+        <v>165</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>116</v>
+        <v>233</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>117</v>
+        <v>234</v>
       </c>
       <c r="J37" s="13"/>
       <c r="K37" s="15"/>
@@ -2792,29 +2798,29 @@
       <c r="A38" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" s="9" t="s">
+      <c r="B38" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="F38" s="24" t="s">
         <v>11</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>13</v>
+        <v>165</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>119</v>
+        <v>235</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>120</v>
+        <v>236</v>
       </c>
       <c r="J38" s="13"/>
       <c r="K38" s="15"/>
@@ -2830,29 +2836,29 @@
       <c r="A39" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="9" t="s">
+      <c r="B39" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="F39" s="24" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>13</v>
+        <v>166</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>122</v>
+        <v>237</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>123</v>
+        <v>229</v>
       </c>
       <c r="J39" s="13"/>
       <c r="K39" s="15"/>
@@ -2866,31 +2872,31 @@
     </row>
     <row r="40" spans="1:18" ht="12.75">
       <c r="A40" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="F40" s="24" t="s">
         <v>11</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>13</v>
+        <v>167</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>125</v>
+        <v>238</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>126</v>
+        <v>239</v>
       </c>
       <c r="J40" s="13"/>
       <c r="K40" s="15"/>
@@ -2904,31 +2910,31 @@
     </row>
     <row r="41" spans="1:18" ht="12.75">
       <c r="A41" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="F41" s="24" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>128</v>
+        <v>240</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>129</v>
+        <v>241</v>
       </c>
       <c r="J41" s="13"/>
       <c r="K41" s="15"/>
@@ -2942,31 +2948,31 @@
     </row>
     <row r="42" spans="1:18" ht="12.75">
       <c r="A42" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="F42" s="24" t="s">
         <v>11</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>131</v>
+        <v>242</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>132</v>
+        <v>243</v>
       </c>
       <c r="J42" s="5"/>
       <c r="K42" s="15"/>
@@ -2982,29 +2988,29 @@
       <c r="A43" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" s="9" t="s">
+      <c r="B43" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="F43" s="24" t="s">
         <v>11</v>
       </c>
       <c r="G43" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>134</v>
+        <v>244</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>135</v>
+        <v>245</v>
       </c>
       <c r="J43" s="13"/>
       <c r="K43" s="15"/>
@@ -3018,31 +3024,31 @@
     </row>
     <row r="44" spans="1:18" ht="12.75">
       <c r="A44" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="F44" s="24" t="s">
         <v>11</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>13</v>
+        <v>166</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="I44" s="9" t="s">
-        <v>138</v>
+        <v>246</v>
+      </c>
+      <c r="I44" s="9">
+        <v>932130492</v>
       </c>
       <c r="J44" s="13"/>
       <c r="K44" s="15"/>
@@ -3056,31 +3062,31 @@
     </row>
     <row r="45" spans="1:18" ht="12.75">
       <c r="A45" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="F45" s="24" t="s">
         <v>11</v>
       </c>
       <c r="G45" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>140</v>
+        <v>247</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>141</v>
+        <v>248</v>
       </c>
       <c r="J45" s="13"/>
       <c r="K45" s="15"/>
@@ -3094,31 +3100,31 @@
     </row>
     <row r="46" spans="1:18" ht="12.75">
       <c r="A46" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E46" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="F46" s="24" t="s">
         <v>11</v>
       </c>
       <c r="G46" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>143</v>
+        <v>249</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>144</v>
+        <v>250</v>
       </c>
       <c r="J46" s="13"/>
       <c r="K46" s="15"/>
@@ -3132,31 +3138,31 @@
     </row>
     <row r="47" spans="1:18" ht="12.75">
       <c r="A47" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E47" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="F47" s="24" t="s">
         <v>11</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>13</v>
+        <v>166</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>146</v>
+        <v>251</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>147</v>
+        <v>229</v>
       </c>
       <c r="J47" s="13"/>
       <c r="K47" s="15"/>
@@ -3170,31 +3176,31 @@
     </row>
     <row r="48" spans="1:18" ht="12.75">
       <c r="A48" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="F48" s="24" t="s">
         <v>11</v>
       </c>
       <c r="G48" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>150</v>
+        <v>252</v>
       </c>
       <c r="J48" s="13"/>
       <c r="K48" s="15"/>
@@ -3208,19 +3214,19 @@
     </row>
     <row r="49" spans="1:18" ht="12.75">
       <c r="A49" s="9" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>151</v>
+        <v>83</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="F49" s="9" t="s">
         <v>11</v>
@@ -3229,10 +3235,10 @@
         <v>13</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="I49" s="9" t="s">
-        <v>153</v>
+        <v>253</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>254</v>
       </c>
       <c r="J49" s="13"/>
       <c r="K49" s="15"/>
@@ -3245,32 +3251,32 @@
       <c r="R49" s="7"/>
     </row>
     <row r="50" spans="1:18" ht="12.75">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" s="9" t="s">
+      <c r="B50" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E50" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="F50" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G50" s="9" t="s">
-        <v>13</v>
+      <c r="G50" s="8" t="s">
+        <v>165</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="I50" s="9" t="s">
-        <v>156</v>
+        <v>255</v>
+      </c>
+      <c r="I50" s="31" t="s">
+        <v>256</v>
       </c>
       <c r="J50" s="13"/>
       <c r="K50" s="15"/>
@@ -3283,32 +3289,32 @@
       <c r="R50" s="7"/>
     </row>
     <row r="51" spans="1:18" ht="12.75">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B51" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" s="9" t="s">
+      <c r="B51" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E51" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="F51" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G51" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H51" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="I51" s="9" t="s">
-        <v>159</v>
+      <c r="G51" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="H51" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="I51" s="25" t="s">
+        <v>258</v>
       </c>
       <c r="J51" s="13"/>
       <c r="K51" s="15"/>
@@ -3321,32 +3327,32 @@
       <c r="R51" s="7"/>
     </row>
     <row r="52" spans="1:18" ht="12.75">
-      <c r="A52" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" s="9" t="s">
+      <c r="A52" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E52" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="F52" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G52" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H52" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="I52" s="9" t="s">
-        <v>162</v>
+      <c r="G52" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H52" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="I52" s="25" t="s">
+        <v>260</v>
       </c>
       <c r="J52" s="13"/>
       <c r="K52" s="15"/>
@@ -3359,32 +3365,32 @@
       <c r="R52" s="7"/>
     </row>
     <row r="53" spans="1:18" ht="12.75">
-      <c r="A53" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="9" t="s">
+      <c r="A53" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D53" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E53" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="F53" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G53" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H53" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="I53" s="9" t="s">
-        <v>165</v>
+      <c r="G53" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H53" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="I53" s="30" t="s">
+        <v>262</v>
       </c>
       <c r="J53" s="13"/>
       <c r="K53" s="15"/>
@@ -3397,32 +3403,32 @@
       <c r="R53" s="7"/>
     </row>
     <row r="54" spans="1:18" ht="12.75">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D54" s="9" t="s">
+      <c r="B54" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="D54" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E54" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="F54" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="E54" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H54" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="I54" s="9" t="s">
-        <v>168</v>
+      <c r="H54" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="I54" s="25" t="s">
+        <v>264</v>
       </c>
       <c r="J54" s="13"/>
       <c r="K54" s="15"/>
@@ -3435,32 +3441,32 @@
       <c r="R54" s="7"/>
     </row>
     <row r="55" spans="1:18" ht="12.75">
-      <c r="A55" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" s="9" t="s">
+      <c r="A55" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="F55" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G55" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H55" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="I55" s="9" t="s">
-        <v>171</v>
+      <c r="G55" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="H55" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="I55" s="30" t="s">
+        <v>266</v>
       </c>
       <c r="J55" s="13"/>
       <c r="K55" s="15"/>
@@ -3474,31 +3480,31 @@
     </row>
     <row r="56" spans="1:18" ht="12.75">
       <c r="A56" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F56" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E56" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="F56" s="24" t="s">
         <v>11</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>173</v>
+        <v>267</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>174</v>
+        <v>268</v>
       </c>
       <c r="J56" s="13"/>
       <c r="K56" s="15"/>
@@ -3512,31 +3518,31 @@
     </row>
     <row r="57" spans="1:18" ht="12.75">
       <c r="A57" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F57" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E57" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="F57" s="24" t="s">
         <v>11</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>176</v>
+        <v>269</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>177</v>
+        <v>270</v>
       </c>
       <c r="J57" s="13"/>
       <c r="K57" s="15"/>
@@ -3550,31 +3556,31 @@
     </row>
     <row r="58" spans="1:18" ht="12.75">
       <c r="A58" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F58" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="D58" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E58" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="F58" s="24" t="s">
         <v>11</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>13</v>
+        <v>166</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>179</v>
+        <v>271</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>180</v>
+        <v>272</v>
       </c>
       <c r="J58" s="13"/>
       <c r="K58" s="15"/>
@@ -3590,29 +3596,29 @@
       <c r="A59" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F59" s="9" t="s">
+      <c r="B59" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="D59" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E59" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="F59" s="24" t="s">
         <v>11</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>13</v>
+        <v>166</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>182</v>
+        <v>273</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>183</v>
+        <v>274</v>
       </c>
       <c r="J59" s="13"/>
       <c r="K59" s="15"/>
@@ -3626,31 +3632,31 @@
     </row>
     <row r="60" spans="1:18" ht="12.75">
       <c r="A60" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F60" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D60" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="F60" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G60" s="9" t="s">
+      <c r="G60" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H60" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="I60" s="9" t="s">
-        <v>186</v>
+      <c r="H60" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>276</v>
       </c>
       <c r="J60" s="13"/>
       <c r="K60" s="15"/>
@@ -3664,31 +3670,31 @@
     </row>
     <row r="61" spans="1:18" ht="12.75">
       <c r="A61" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F61" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="D61" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="F61" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G61" s="9" t="s">
+      <c r="G61" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="I61" s="9" t="s">
-        <v>189</v>
+        <v>277</v>
+      </c>
+      <c r="I61" s="31" t="s">
+        <v>278</v>
       </c>
       <c r="J61" s="13"/>
       <c r="K61" s="15"/>
@@ -3702,31 +3708,31 @@
     </row>
     <row r="62" spans="1:18" ht="12.75">
       <c r="A62" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F62" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B62" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="F62" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G62" s="9" t="s">
+      <c r="G62" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="I62" s="9" t="s">
-        <v>192</v>
+        <v>279</v>
+      </c>
+      <c r="I62" s="31" t="s">
+        <v>280</v>
       </c>
       <c r="J62" s="13"/>
       <c r="K62" s="15"/>
@@ -3740,31 +3746,31 @@
     </row>
     <row r="63" spans="1:18" ht="12.75">
       <c r="A63" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F63" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B63" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="D63" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="F63" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G63" s="9" t="s">
+      <c r="G63" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="I63" s="9" t="s">
-        <v>195</v>
+        <v>281</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>282</v>
       </c>
       <c r="J63" s="13"/>
       <c r="K63" s="15"/>
@@ -3780,29 +3786,29 @@
       <c r="A64" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F64" s="9" t="s">
+      <c r="B64" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="D64" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="F64" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G64" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H64" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="I64" s="9" t="s">
-        <v>198</v>
+      <c r="G64" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="I64" s="8" t="s">
+        <v>284</v>
       </c>
       <c r="J64" s="13"/>
       <c r="K64" s="15"/>
@@ -3815,33 +3821,15 @@
       <c r="R64" s="7"/>
     </row>
     <row r="65" spans="1:18" ht="12.75">
-      <c r="A65" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H65" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="I65" s="9" t="s">
-        <v>201</v>
-      </c>
+      <c r="A65" s="22"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
       <c r="J65" s="13"/>
       <c r="K65" s="15"/>
       <c r="L65" s="15"/>
@@ -3853,33 +3841,15 @@
       <c r="R65" s="7"/>
     </row>
     <row r="66" spans="1:18" ht="12.75">
-      <c r="A66" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H66" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="I66" s="9" t="s">
-        <v>204</v>
-      </c>
+      <c r="A66" s="22"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
       <c r="J66" s="13"/>
       <c r="K66" s="15"/>
       <c r="L66" s="15"/>
@@ -3891,33 +3861,15 @@
       <c r="R66" s="7"/>
     </row>
     <row r="67" spans="1:18" ht="12.75">
-      <c r="A67" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H67" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="I67" s="9" t="s">
-        <v>207</v>
-      </c>
+      <c r="A67" s="22"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
       <c r="J67" s="13"/>
       <c r="K67" s="15"/>
       <c r="L67" s="15"/>
@@ -3929,33 +3881,15 @@
       <c r="R67" s="7"/>
     </row>
     <row r="68" spans="1:18" ht="12.75">
-      <c r="A68" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F68" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H68" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="I68" s="9" t="s">
-        <v>210</v>
-      </c>
+      <c r="A68" s="22"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
       <c r="J68" s="13"/>
       <c r="K68" s="15"/>
       <c r="L68" s="15"/>
@@ -3967,33 +3901,15 @@
       <c r="R68" s="7"/>
     </row>
     <row r="69" spans="1:18" ht="12.75">
-      <c r="A69" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F69" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H69" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="I69" s="9" t="s">
-        <v>213</v>
-      </c>
+      <c r="A69" s="22"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
       <c r="J69" s="14"/>
       <c r="K69" s="15"/>
       <c r="L69" s="15"/>
@@ -4005,33 +3921,15 @@
       <c r="R69" s="7"/>
     </row>
     <row r="70" spans="1:18" ht="12.75">
-      <c r="A70" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F70" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H70" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="I70" s="9" t="s">
-        <v>216</v>
-      </c>
+      <c r="A70" s="22"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
       <c r="J70" s="14"/>
       <c r="K70" s="15"/>
       <c r="L70" s="15"/>
@@ -4043,33 +3941,15 @@
       <c r="R70" s="7"/>
     </row>
     <row r="71" spans="1:18" ht="12.75">
-      <c r="A71" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H71" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="I71" s="9" t="s">
-        <v>219</v>
-      </c>
+      <c r="A71" s="9"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
       <c r="J71" s="14"/>
       <c r="K71" s="15"/>
       <c r="L71" s="15"/>
@@ -4081,33 +3961,15 @@
       <c r="R71" s="7"/>
     </row>
     <row r="72" spans="1:18" ht="12.75">
-      <c r="A72" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F72" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H72" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="I72" s="9" t="s">
-        <v>222</v>
-      </c>
+      <c r="A72" s="9"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
       <c r="J72" s="14"/>
       <c r="K72" s="15"/>
       <c r="L72" s="15"/>
@@ -4119,33 +3981,15 @@
       <c r="R72" s="7"/>
     </row>
     <row r="73" spans="1:18" ht="12.75">
-      <c r="A73" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F73" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H73" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="I73" s="9" t="s">
-        <v>225</v>
-      </c>
+      <c r="A73" s="9"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
       <c r="J73" s="14"/>
       <c r="K73" s="15"/>
       <c r="L73" s="15"/>
@@ -4157,33 +4001,15 @@
       <c r="R73" s="7"/>
     </row>
     <row r="74" spans="1:18" ht="12.75">
-      <c r="A74" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F74" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H74" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="I74" s="9" t="s">
-        <v>228</v>
-      </c>
+      <c r="A74" s="9"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
       <c r="J74" s="14"/>
       <c r="K74" s="15"/>
       <c r="L74" s="15"/>
@@ -4195,33 +4021,15 @@
       <c r="R74" s="7"/>
     </row>
     <row r="75" spans="1:18" ht="12.75">
-      <c r="A75" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F75" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H75" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="I75" s="9" t="s">
-        <v>231</v>
-      </c>
+      <c r="A75" s="9"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
       <c r="J75" s="14"/>
       <c r="K75" s="15"/>
       <c r="L75" s="15"/>
@@ -4233,33 +4041,15 @@
       <c r="R75" s="7"/>
     </row>
     <row r="76" spans="1:18" ht="12.75">
-      <c r="A76" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F76" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H76" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="I76" s="9" t="s">
-        <v>234</v>
-      </c>
+      <c r="A76" s="9"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
       <c r="J76" s="14"/>
       <c r="K76" s="15"/>
       <c r="L76" s="15"/>
@@ -4271,33 +4061,15 @@
       <c r="R76" s="7"/>
     </row>
     <row r="77" spans="1:18" ht="12.75">
-      <c r="A77" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F77" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H77" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="I77" s="9" t="s">
-        <v>237</v>
-      </c>
+      <c r="A77" s="9"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
       <c r="J77" s="14"/>
       <c r="K77" s="15"/>
       <c r="L77" s="17"/>
@@ -4309,33 +4081,15 @@
       <c r="R77" s="7"/>
     </row>
     <row r="78" spans="1:18" ht="12.75">
-      <c r="A78" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F78" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H78" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="I78" s="9" t="s">
-        <v>240</v>
-      </c>
+      <c r="A78" s="9"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
       <c r="J78" s="14"/>
       <c r="K78" s="15"/>
       <c r="L78" s="17"/>
@@ -4347,33 +4101,15 @@
       <c r="R78" s="7"/>
     </row>
     <row r="79" spans="1:18" ht="12.75">
-      <c r="A79" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H79" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="I79" s="9" t="s">
-        <v>243</v>
-      </c>
+      <c r="A79" s="9"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
       <c r="J79" s="14"/>
       <c r="K79" s="15"/>
       <c r="L79" s="15"/>
@@ -4385,33 +4121,15 @@
       <c r="R79" s="7"/>
     </row>
     <row r="80" spans="1:18" ht="12.75">
-      <c r="A80" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F80" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H80" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="I80" s="9" t="s">
-        <v>246</v>
-      </c>
+      <c r="A80" s="9"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
       <c r="J80" s="14"/>
       <c r="K80" s="15"/>
       <c r="L80" s="17"/>
@@ -4423,33 +4141,15 @@
       <c r="R80" s="7"/>
     </row>
     <row r="81" spans="1:18" ht="12.75">
-      <c r="A81" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="E81" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F81" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G81" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H81" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="I81" s="9" t="s">
-        <v>249</v>
-      </c>
+      <c r="A81" s="9"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
       <c r="J81" s="14"/>
       <c r="K81" s="15"/>
       <c r="L81" s="15"/>
@@ -4461,33 +4161,15 @@
       <c r="R81" s="7"/>
     </row>
     <row r="82" spans="1:18" ht="12.75">
-      <c r="A82" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F82" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H82" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="I82" s="9" t="s">
-        <v>252</v>
-      </c>
+      <c r="A82" s="9"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
       <c r="J82" s="14"/>
       <c r="K82" s="15"/>
       <c r="L82" s="15"/>
@@ -4499,33 +4181,15 @@
       <c r="R82" s="7"/>
     </row>
     <row r="83" spans="1:18" ht="12.75">
-      <c r="A83" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="E83" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F83" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G83" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H83" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="I83" s="9" t="s">
-        <v>255</v>
-      </c>
+      <c r="A83" s="9"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
       <c r="J83" s="14"/>
       <c r="K83" s="15"/>
       <c r="L83" s="15"/>
@@ -4537,33 +4201,15 @@
       <c r="R83" s="7"/>
     </row>
     <row r="84" spans="1:18" ht="12.75">
-      <c r="A84" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F84" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H84" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="I84" s="9" t="s">
-        <v>258</v>
-      </c>
+      <c r="A84" s="9"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
       <c r="J84" s="14"/>
       <c r="K84" s="17"/>
       <c r="L84" s="15"/>
@@ -4575,33 +4221,15 @@
       <c r="R84" s="7"/>
     </row>
     <row r="85" spans="1:18" ht="12.75">
-      <c r="A85" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="E85" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F85" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G85" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H85" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="I85" s="9" t="s">
-        <v>261</v>
-      </c>
+      <c r="A85" s="9"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
       <c r="J85" s="14"/>
       <c r="K85" s="17"/>
       <c r="L85" s="15"/>
@@ -4613,33 +4241,15 @@
       <c r="R85" s="7"/>
     </row>
     <row r="86" spans="1:18" ht="12.75">
-      <c r="A86" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="E86" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F86" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H86" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="I86" s="9" t="s">
-        <v>264</v>
-      </c>
+      <c r="A86" s="9"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
       <c r="J86" s="14"/>
       <c r="K86" s="17"/>
       <c r="L86" s="15"/>
@@ -4651,33 +4261,15 @@
       <c r="R86" s="7"/>
     </row>
     <row r="87" spans="1:18" ht="12.75">
-      <c r="A87" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="E87" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F87" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G87" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H87" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="I87" s="9" t="s">
-        <v>267</v>
-      </c>
+      <c r="A87" s="9"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
       <c r="J87" s="14"/>
       <c r="K87" s="15"/>
       <c r="L87" s="17"/>
@@ -4689,33 +4281,15 @@
       <c r="R87" s="7"/>
     </row>
     <row r="88" spans="1:18" ht="12.75">
-      <c r="A88" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="E88" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F88" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G88" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H88" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="I88" s="9" t="s">
-        <v>270</v>
-      </c>
+      <c r="A88" s="9"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
       <c r="J88" s="14"/>
       <c r="K88" s="15"/>
       <c r="L88" s="17"/>
@@ -4727,33 +4301,15 @@
       <c r="R88" s="7"/>
     </row>
     <row r="89" spans="1:18" ht="12.75">
-      <c r="A89" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="E89" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F89" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H89" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="I89" s="9" t="s">
-        <v>273</v>
-      </c>
+      <c r="A89" s="9"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
       <c r="J89" s="14"/>
       <c r="K89" s="17"/>
       <c r="L89" s="17"/>
@@ -4765,33 +4321,15 @@
       <c r="R89" s="7"/>
     </row>
     <row r="90" spans="1:18" ht="12.75">
-      <c r="A90" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="E90" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F90" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G90" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H90" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="I90" s="9" t="s">
-        <v>276</v>
-      </c>
+      <c r="A90" s="9"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
       <c r="J90" s="14"/>
       <c r="K90" s="17"/>
       <c r="L90" s="17"/>
@@ -4803,33 +4341,15 @@
       <c r="R90" s="7"/>
     </row>
     <row r="91" spans="1:18" ht="12.75">
-      <c r="A91" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="E91" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F91" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H91" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="I91" s="9" t="s">
-        <v>279</v>
-      </c>
+      <c r="A91" s="9"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
       <c r="J91" s="14"/>
       <c r="K91" s="17"/>
       <c r="L91" s="17"/>
@@ -4841,33 +4361,15 @@
       <c r="R91" s="7"/>
     </row>
     <row r="92" spans="1:18" ht="12.75">
-      <c r="A92" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B92" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="E92" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F92" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H92" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="I92" s="9" t="s">
-        <v>282</v>
-      </c>
+      <c r="A92" s="9"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="9"/>
       <c r="J92" s="14"/>
       <c r="K92" s="17"/>
       <c r="L92" s="17"/>
@@ -4879,33 +4381,15 @@
       <c r="R92" s="7"/>
     </row>
     <row r="93" spans="1:18" ht="12.75">
-      <c r="A93" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B93" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E93" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F93" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H93" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="I93" s="9" t="s">
-        <v>285</v>
-      </c>
+      <c r="A93" s="9"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="9"/>
       <c r="J93" s="14"/>
       <c r="K93" s="17"/>
       <c r="L93" s="17"/>
@@ -4917,33 +4401,15 @@
       <c r="R93" s="7"/>
     </row>
     <row r="94" spans="1:18" ht="12.75">
-      <c r="A94" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="E94" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F94" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H94" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="I94" s="9" t="s">
-        <v>288</v>
-      </c>
+      <c r="A94" s="9"/>
+      <c r="B94" s="9"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="9"/>
       <c r="J94" s="14"/>
       <c r="K94" s="17"/>
       <c r="L94" s="17"/>
@@ -4955,33 +4421,15 @@
       <c r="R94" s="7"/>
     </row>
     <row r="95" spans="1:18" ht="12.75">
-      <c r="A95" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="E95" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F95" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G95" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H95" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="I95" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="A95" s="9"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9"/>
       <c r="J95" s="14"/>
       <c r="K95" s="17"/>
       <c r="L95" s="17"/>
@@ -4993,33 +4441,15 @@
       <c r="R95" s="7"/>
     </row>
     <row r="96" spans="1:18" ht="12.75">
-      <c r="A96" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="E96" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F96" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G96" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H96" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="I96" s="9" t="s">
-        <v>294</v>
-      </c>
+      <c r="A96" s="9"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="9"/>
       <c r="J96" s="14"/>
       <c r="K96" s="17"/>
       <c r="L96" s="17"/>
@@ -5031,33 +4461,15 @@
       <c r="R96" s="7"/>
     </row>
     <row r="97" spans="1:18" ht="12.75">
-      <c r="A97" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="E97" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F97" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G97" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H97" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="I97" s="9" t="s">
-        <v>297</v>
-      </c>
+      <c r="A97" s="9"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
       <c r="J97" s="14"/>
       <c r="K97" s="17"/>
       <c r="L97" s="17"/>
@@ -5069,33 +4481,15 @@
       <c r="R97" s="7"/>
     </row>
     <row r="98" spans="1:18" ht="12.75">
-      <c r="A98" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="E98" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F98" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H98" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="I98" s="9" t="s">
-        <v>300</v>
-      </c>
+      <c r="A98" s="9"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9"/>
       <c r="J98" s="14"/>
       <c r="K98" s="17"/>
       <c r="L98" s="17"/>
@@ -5107,33 +4501,15 @@
       <c r="R98" s="7"/>
     </row>
     <row r="99" spans="1:18" ht="12.75">
-      <c r="A99" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="E99" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F99" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H99" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="I99" s="9" t="s">
-        <v>303</v>
-      </c>
+      <c r="A99" s="9"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="9"/>
       <c r="J99" s="14"/>
       <c r="K99" s="17"/>
       <c r="L99" s="17"/>
@@ -8835,20 +8211,34 @@
       <c r="R987" s="7"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A107">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+  <conditionalFormatting sqref="A2 A65:A107">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" sqref="A2:A107" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <conditionalFormatting sqref="A5:A64">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(A5))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" sqref="A2 A65:A107" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A$109:$A$112</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G2:G107" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="G2 G65:G107" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$Q$2:$Q$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D2:D107" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" sqref="D2 D65:D107" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>$A$115:$A$118</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="G3:G64" xr:uid="{9C1BFE9C-5A54-435B-86F8-6B81983373B5}">
+      <formula1>$S$3:$S$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="D3:D64" xr:uid="{5B10D6AE-F7A3-4BAE-8058-ED9C3E0DBC5D}">
+      <formula1>$B$99:$B$102</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="A3:A64" xr:uid="{6FC0D219-4013-4CB5-8226-8742627FF752}">
+      <formula1>$B$93:$B$96</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
